--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Cxcl12-Itga5.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Cxcl12-Itga5.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.0280983213187</v>
+        <v>81.05837566666666</v>
       </c>
       <c r="H2">
-        <v>17.0280983213187</v>
+        <v>243.175127</v>
       </c>
       <c r="I2">
-        <v>0.1072910638910888</v>
+        <v>0.3545816884225585</v>
       </c>
       <c r="J2">
-        <v>0.1072910638910888</v>
+        <v>0.3545816884225585</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>25.6281652430721</v>
+        <v>31.22896466666667</v>
       </c>
       <c r="N2">
-        <v>25.6281652430721</v>
+        <v>93.686894</v>
       </c>
       <c r="O2">
-        <v>0.2584047348414191</v>
+        <v>0.2877106972998646</v>
       </c>
       <c r="P2">
-        <v>0.2584047348414191</v>
+        <v>0.2877106972998646</v>
       </c>
       <c r="Q2">
-        <v>436.3989175540343</v>
+        <v>2531.369149631726</v>
       </c>
       <c r="R2">
-        <v>436.3989175540343</v>
+        <v>22782.32234668553</v>
       </c>
       <c r="S2">
-        <v>0.02772451891563055</v>
+        <v>0.1020169448258176</v>
       </c>
       <c r="T2">
-        <v>0.02772451891563055</v>
+        <v>0.1020169448258176</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.0280983213187</v>
+        <v>81.05837566666666</v>
       </c>
       <c r="H3">
-        <v>17.0280983213187</v>
+        <v>243.175127</v>
       </c>
       <c r="I3">
-        <v>0.1072910638910888</v>
+        <v>0.3545816884225585</v>
       </c>
       <c r="J3">
-        <v>0.1072910638910888</v>
+        <v>0.3545816884225585</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>40.3702434855674</v>
+        <v>40.44578266666667</v>
       </c>
       <c r="N3">
-        <v>40.3702434855674</v>
+        <v>121.337348</v>
       </c>
       <c r="O3">
-        <v>0.4070467770294851</v>
+        <v>0.3726247238124506</v>
       </c>
       <c r="P3">
-        <v>0.4070467770294851</v>
+        <v>0.3726247238124505</v>
       </c>
       <c r="Q3">
-        <v>687.4284753278175</v>
+        <v>3278.469445527021</v>
       </c>
       <c r="R3">
-        <v>687.4284753278175</v>
+        <v>29506.22500974319</v>
       </c>
       <c r="S3">
-        <v>0.04367248176093226</v>
+        <v>0.1321259037174083</v>
       </c>
       <c r="T3">
-        <v>0.04367248176093226</v>
+        <v>0.1321259037174083</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.0280983213187</v>
+        <v>81.05837566666666</v>
       </c>
       <c r="H4">
-        <v>17.0280983213187</v>
+        <v>243.175127</v>
       </c>
       <c r="I4">
-        <v>0.1072910638910888</v>
+        <v>0.3545816884225585</v>
       </c>
       <c r="J4">
-        <v>0.1072910638910888</v>
+        <v>0.3545816884225585</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.7651295463747</v>
+        <v>25.36964133333333</v>
       </c>
       <c r="N4">
-        <v>21.7651295463747</v>
+        <v>76.108924</v>
       </c>
       <c r="O4">
-        <v>0.2194543571838584</v>
+        <v>0.2337290805561598</v>
       </c>
       <c r="P4">
-        <v>0.2194543571838584</v>
+        <v>0.2337290805561598</v>
       </c>
       <c r="Q4">
-        <v>370.6187658919071</v>
+        <v>2056.421917725927</v>
       </c>
       <c r="R4">
-        <v>370.6187658919071</v>
+        <v>18507.79725953334</v>
       </c>
       <c r="S4">
-        <v>0.02354549145779117</v>
+        <v>0.08287605201705532</v>
       </c>
       <c r="T4">
-        <v>0.02354549145779117</v>
+        <v>0.08287605201705532</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.0280983213187</v>
+        <v>81.05837566666666</v>
       </c>
       <c r="H5">
-        <v>17.0280983213187</v>
+        <v>243.175127</v>
       </c>
       <c r="I5">
-        <v>0.1072910638910888</v>
+        <v>0.3545816884225585</v>
       </c>
       <c r="J5">
-        <v>0.1072910638910888</v>
+        <v>0.3545816884225585</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.4148504600061</v>
+        <v>11.49855033333333</v>
       </c>
       <c r="N5">
-        <v>11.4148504600061</v>
+        <v>34.495651</v>
       </c>
       <c r="O5">
-        <v>0.1150941309452376</v>
+        <v>0.1059354983315251</v>
       </c>
       <c r="P5">
-        <v>0.1150941309452376</v>
+        <v>0.1059354983315251</v>
       </c>
       <c r="Q5">
-        <v>194.3731959561339</v>
+        <v>932.0538125414085</v>
       </c>
       <c r="R5">
-        <v>194.3731959561339</v>
+        <v>8388.484312872677</v>
       </c>
       <c r="S5">
-        <v>0.01234857175673482</v>
+        <v>0.03756278786227731</v>
       </c>
       <c r="T5">
-        <v>0.01234857175673482</v>
+        <v>0.03756278786227731</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>122.863246657766</v>
+        <v>123.018252</v>
       </c>
       <c r="H6">
-        <v>122.863246657766</v>
+        <v>369.054756</v>
       </c>
       <c r="I6">
-        <v>0.7741397893222943</v>
+        <v>0.5381309351710768</v>
       </c>
       <c r="J6">
-        <v>0.7741397893222943</v>
+        <v>0.5381309351710768</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>25.6281652430721</v>
+        <v>31.22896466666667</v>
       </c>
       <c r="N6">
-        <v>25.6281652430721</v>
+        <v>93.686894</v>
       </c>
       <c r="O6">
-        <v>0.2584047348414191</v>
+        <v>0.2877106972998646</v>
       </c>
       <c r="P6">
-        <v>0.2584047348414191</v>
+        <v>0.2877106972998646</v>
       </c>
       <c r="Q6">
-        <v>3148.759587645553</v>
+        <v>3841.732645063096</v>
       </c>
       <c r="R6">
-        <v>3148.759587645553</v>
+        <v>34575.59380556786</v>
       </c>
       <c r="S6">
-        <v>0.2000413869900195</v>
+        <v>0.1548260265966987</v>
       </c>
       <c r="T6">
-        <v>0.2000413869900195</v>
+        <v>0.1548260265966987</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>122.863246657766</v>
+        <v>123.018252</v>
       </c>
       <c r="H7">
-        <v>122.863246657766</v>
+        <v>369.054756</v>
       </c>
       <c r="I7">
-        <v>0.7741397893222943</v>
+        <v>0.5381309351710768</v>
       </c>
       <c r="J7">
-        <v>0.7741397893222943</v>
+        <v>0.5381309351710768</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>40.3702434855674</v>
+        <v>40.44578266666667</v>
       </c>
       <c r="N7">
-        <v>40.3702434855674</v>
+        <v>121.337348</v>
       </c>
       <c r="O7">
-        <v>0.4070467770294851</v>
+        <v>0.3726247238124506</v>
       </c>
       <c r="P7">
-        <v>0.4070467770294851</v>
+        <v>0.3726247238124505</v>
       </c>
       <c r="Q7">
-        <v>4960.019183001338</v>
+        <v>4975.569484425232</v>
       </c>
       <c r="R7">
-        <v>4960.019183001338</v>
+        <v>44780.12535982709</v>
       </c>
       <c r="S7">
-        <v>0.3151111062139245</v>
+        <v>0.2005208910930583</v>
       </c>
       <c r="T7">
-        <v>0.3151111062139245</v>
+        <v>0.2005208910930582</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>122.863246657766</v>
+        <v>123.018252</v>
       </c>
       <c r="H8">
-        <v>122.863246657766</v>
+        <v>369.054756</v>
       </c>
       <c r="I8">
-        <v>0.7741397893222943</v>
+        <v>0.5381309351710768</v>
       </c>
       <c r="J8">
-        <v>0.7741397893222943</v>
+        <v>0.5381309351710768</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.7651295463747</v>
+        <v>25.36964133333333</v>
       </c>
       <c r="N8">
-        <v>21.7651295463747</v>
+        <v>76.108924</v>
       </c>
       <c r="O8">
-        <v>0.2194543571838584</v>
+        <v>0.2337290805561598</v>
       </c>
       <c r="P8">
-        <v>0.2194543571838584</v>
+        <v>0.2337290805561598</v>
       </c>
       <c r="Q8">
-        <v>2674.134479994465</v>
+        <v>3120.928930693616</v>
       </c>
       <c r="R8">
-        <v>2674.134479994465</v>
+        <v>28088.36037624254</v>
       </c>
       <c r="S8">
-        <v>0.1698883498361717</v>
+        <v>0.1257768486963622</v>
       </c>
       <c r="T8">
-        <v>0.1698883498361717</v>
+        <v>0.1257768486963622</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>122.863246657766</v>
+        <v>123.018252</v>
       </c>
       <c r="H9">
-        <v>122.863246657766</v>
+        <v>369.054756</v>
       </c>
       <c r="I9">
-        <v>0.7741397893222943</v>
+        <v>0.5381309351710768</v>
       </c>
       <c r="J9">
-        <v>0.7741397893222943</v>
+        <v>0.5381309351710768</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>11.4148504600061</v>
+        <v>11.49855033333333</v>
       </c>
       <c r="N9">
-        <v>11.4148504600061</v>
+        <v>34.495651</v>
       </c>
       <c r="O9">
-        <v>0.1150941309452376</v>
+        <v>0.1059354983315251</v>
       </c>
       <c r="P9">
-        <v>0.1150941309452376</v>
+        <v>0.1059354983315251</v>
       </c>
       <c r="Q9">
-        <v>1402.465587629243</v>
+        <v>1414.531562540684</v>
       </c>
       <c r="R9">
-        <v>1402.465587629243</v>
+        <v>12730.78406286616</v>
       </c>
       <c r="S9">
-        <v>0.08909894628217876</v>
+        <v>0.05700716878495767</v>
       </c>
       <c r="T9">
-        <v>0.08909894628217876</v>
+        <v>0.05700716878495767</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.237343966245174</v>
+        <v>0.3624666666666667</v>
       </c>
       <c r="H10">
-        <v>0.237343966245174</v>
+        <v>1.0874</v>
       </c>
       <c r="I10">
-        <v>0.001495462744344978</v>
+        <v>0.001585573873230423</v>
       </c>
       <c r="J10">
-        <v>0.001495462744344978</v>
+        <v>0.001585573873230423</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>25.6281652430721</v>
+        <v>31.22896466666667</v>
       </c>
       <c r="N10">
-        <v>25.6281652430721</v>
+        <v>93.686894</v>
       </c>
       <c r="O10">
-        <v>0.2584047348414191</v>
+        <v>0.2877106972998646</v>
       </c>
       <c r="P10">
-        <v>0.2584047348414191</v>
+        <v>0.2877106972998646</v>
       </c>
       <c r="Q10">
-        <v>6.082690386377446</v>
+        <v>11.31945872617778</v>
       </c>
       <c r="R10">
-        <v>6.082690386377446</v>
+        <v>101.8751285356</v>
       </c>
       <c r="S10">
-        <v>0.000386434653917685</v>
+        <v>0.0004561865646875722</v>
       </c>
       <c r="T10">
-        <v>0.000386434653917685</v>
+        <v>0.0004561865646875722</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.237343966245174</v>
+        <v>0.3624666666666667</v>
       </c>
       <c r="H11">
-        <v>0.237343966245174</v>
+        <v>1.0874</v>
       </c>
       <c r="I11">
-        <v>0.001495462744344978</v>
+        <v>0.001585573873230423</v>
       </c>
       <c r="J11">
-        <v>0.001495462744344978</v>
+        <v>0.001585573873230423</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>40.3702434855674</v>
+        <v>40.44578266666667</v>
       </c>
       <c r="N11">
-        <v>40.3702434855674</v>
+        <v>121.337348</v>
       </c>
       <c r="O11">
-        <v>0.4070467770294851</v>
+        <v>0.3726247238124506</v>
       </c>
       <c r="P11">
-        <v>0.4070467770294851</v>
+        <v>0.3726247238124505</v>
       </c>
       <c r="Q11">
-        <v>9.581633707147965</v>
+        <v>14.66024802391111</v>
       </c>
       <c r="R11">
-        <v>9.581633707147965</v>
+        <v>131.9422322152</v>
       </c>
       <c r="S11">
-        <v>0.0006087232902532924</v>
+        <v>0.0005908240265967241</v>
       </c>
       <c r="T11">
-        <v>0.0006087232902532924</v>
+        <v>0.0005908240265967239</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.237343966245174</v>
+        <v>0.3624666666666667</v>
       </c>
       <c r="H12">
-        <v>0.237343966245174</v>
+        <v>1.0874</v>
       </c>
       <c r="I12">
-        <v>0.001495462744344978</v>
+        <v>0.001585573873230423</v>
       </c>
       <c r="J12">
-        <v>0.001495462744344978</v>
+        <v>0.001585573873230423</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>21.7651295463747</v>
+        <v>25.36964133333333</v>
       </c>
       <c r="N12">
-        <v>21.7651295463747</v>
+        <v>76.108924</v>
       </c>
       <c r="O12">
-        <v>0.2194543571838584</v>
+        <v>0.2337290805561598</v>
       </c>
       <c r="P12">
-        <v>0.2194543571838584</v>
+        <v>0.2337290805561598</v>
       </c>
       <c r="Q12">
-        <v>5.165822172376596</v>
+        <v>9.195649328622222</v>
       </c>
       <c r="R12">
-        <v>5.165822172376596</v>
+        <v>82.7608439576</v>
       </c>
       <c r="S12">
-        <v>0.000328185815252636</v>
+        <v>0.0003705947235440158</v>
       </c>
       <c r="T12">
-        <v>0.000328185815252636</v>
+        <v>0.0003705947235440158</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.237343966245174</v>
+        <v>0.3624666666666667</v>
       </c>
       <c r="H13">
-        <v>0.237343966245174</v>
+        <v>1.0874</v>
       </c>
       <c r="I13">
-        <v>0.001495462744344978</v>
+        <v>0.001585573873230423</v>
       </c>
       <c r="J13">
-        <v>0.001495462744344978</v>
+        <v>0.001585573873230423</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.4148504600061</v>
+        <v>11.49855033333333</v>
       </c>
       <c r="N13">
-        <v>11.4148504600061</v>
+        <v>34.495651</v>
       </c>
       <c r="O13">
-        <v>0.1150941309452376</v>
+        <v>0.1059354983315251</v>
       </c>
       <c r="P13">
-        <v>0.1150941309452376</v>
+        <v>0.1059354983315251</v>
       </c>
       <c r="Q13">
-        <v>2.709245882273397</v>
+        <v>4.167841210822222</v>
       </c>
       <c r="R13">
-        <v>2.709245882273397</v>
+        <v>37.5105708974</v>
       </c>
       <c r="S13">
-        <v>0.0001721189849213653</v>
+        <v>0.0001679685584021114</v>
       </c>
       <c r="T13">
-        <v>0.0001721189849213653</v>
+        <v>0.0001679685584021114</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>18.5806919086426</v>
+        <v>24.16373066666667</v>
       </c>
       <c r="H14">
-        <v>18.5806919086426</v>
+        <v>72.491192</v>
       </c>
       <c r="I14">
-        <v>0.1170736840422721</v>
+        <v>0.1057018025331343</v>
       </c>
       <c r="J14">
-        <v>0.1170736840422721</v>
+        <v>0.1057018025331344</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>25.6281652430721</v>
+        <v>31.22896466666667</v>
       </c>
       <c r="N14">
-        <v>25.6281652430721</v>
+        <v>93.686894</v>
       </c>
       <c r="O14">
-        <v>0.2584047348414191</v>
+        <v>0.2877106972998646</v>
       </c>
       <c r="P14">
-        <v>0.2584047348414191</v>
+        <v>0.2877106972998646</v>
       </c>
       <c r="Q14">
-        <v>476.1890425653053</v>
+        <v>754.608291204183</v>
       </c>
       <c r="R14">
-        <v>476.1890425653053</v>
+        <v>6791.474620837647</v>
       </c>
       <c r="S14">
-        <v>0.0302523942818514</v>
+        <v>0.03041153931266067</v>
       </c>
       <c r="T14">
-        <v>0.0302523942818514</v>
+        <v>0.03041153931266068</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>18.5806919086426</v>
+        <v>24.16373066666667</v>
       </c>
       <c r="H15">
-        <v>18.5806919086426</v>
+        <v>72.491192</v>
       </c>
       <c r="I15">
-        <v>0.1170736840422721</v>
+        <v>0.1057018025331343</v>
       </c>
       <c r="J15">
-        <v>0.1170736840422721</v>
+        <v>0.1057018025331344</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>40.3702434855674</v>
+        <v>40.44578266666667</v>
       </c>
       <c r="N15">
-        <v>40.3702434855674</v>
+        <v>121.337348</v>
       </c>
       <c r="O15">
-        <v>0.4070467770294851</v>
+        <v>0.3726247238124506</v>
       </c>
       <c r="P15">
-        <v>0.4070467770294851</v>
+        <v>0.3726247238124505</v>
       </c>
       <c r="Q15">
-        <v>750.1070564822138</v>
+        <v>977.3209989598685</v>
       </c>
       <c r="R15">
-        <v>750.1070564822138</v>
+        <v>8795.888990638816</v>
       </c>
       <c r="S15">
-        <v>0.04765446576437512</v>
+        <v>0.03938710497538737</v>
       </c>
       <c r="T15">
-        <v>0.04765446576437512</v>
+        <v>0.03938710497538737</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>18.5806919086426</v>
+        <v>24.16373066666667</v>
       </c>
       <c r="H16">
-        <v>18.5806919086426</v>
+        <v>72.491192</v>
       </c>
       <c r="I16">
-        <v>0.1170736840422721</v>
+        <v>0.1057018025331343</v>
       </c>
       <c r="J16">
-        <v>0.1170736840422721</v>
+        <v>0.1057018025331344</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>21.7651295463747</v>
+        <v>25.36964133333333</v>
       </c>
       <c r="N16">
-        <v>21.7651295463747</v>
+        <v>76.108924</v>
       </c>
       <c r="O16">
-        <v>0.2194543571838584</v>
+        <v>0.2337290805561598</v>
       </c>
       <c r="P16">
-        <v>0.2194543571838584</v>
+        <v>0.2337290805561598</v>
       </c>
       <c r="Q16">
-        <v>404.4111664528823</v>
+        <v>613.0251802886008</v>
       </c>
       <c r="R16">
-        <v>404.4111664528823</v>
+        <v>5517.226622597408</v>
       </c>
       <c r="S16">
-        <v>0.02569233007464296</v>
+        <v>0.02470558511919825</v>
       </c>
       <c r="T16">
-        <v>0.02569233007464296</v>
+        <v>0.02470558511919825</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>18.5806919086426</v>
+        <v>24.16373066666667</v>
       </c>
       <c r="H17">
-        <v>18.5806919086426</v>
+        <v>72.491192</v>
       </c>
       <c r="I17">
-        <v>0.1170736840422721</v>
+        <v>0.1057018025331343</v>
       </c>
       <c r="J17">
-        <v>0.1170736840422721</v>
+        <v>0.1057018025331344</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.4148504600061</v>
+        <v>11.49855033333333</v>
       </c>
       <c r="N17">
-        <v>11.4148504600061</v>
+        <v>34.495651</v>
       </c>
       <c r="O17">
-        <v>0.1150941309452376</v>
+        <v>0.1059354983315251</v>
       </c>
       <c r="P17">
-        <v>0.1150941309452376</v>
+        <v>0.1059354983315251</v>
       </c>
       <c r="Q17">
-        <v>212.0958195806006</v>
+        <v>277.8478733117769</v>
       </c>
       <c r="R17">
-        <v>212.0958195806006</v>
+        <v>2500.630859805992</v>
       </c>
       <c r="S17">
-        <v>0.01347449392140264</v>
+        <v>0.01119757312588805</v>
       </c>
       <c r="T17">
-        <v>0.01347449392140264</v>
+        <v>0.01119757312588805</v>
       </c>
     </row>
   </sheetData>
